--- a/results/all_results_test_std.xlsx
+++ b/results/all_results_test_std.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="cifar10_metrics_test_std" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
-  <si>
-    <t>standard,0.0,False</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>uniform-linf,0.02,False</t>
   </si>
@@ -232,41 +229,492 @@
     <t>95% conf mCE_Lp</t>
   </si>
   <si>
-    <t>RandAugment standard</t>
-  </si>
-  <si>
-    <t>config4_standard_conc1</t>
-  </si>
-  <si>
-    <t>config5_standard_conc2</t>
-  </si>
-  <si>
-    <t>AugMix standard</t>
-  </si>
-  <si>
-    <t>AugMix Impulse</t>
-  </si>
-  <si>
-    <t>TrivialAugment</t>
-  </si>
-  <si>
-    <t>TrivialAugment-impulse</t>
-  </si>
-  <si>
-    <t>TrivialAugment-conf2-conc1</t>
-  </si>
-  <si>
-    <t>TrivialAugment-conf3-conc2</t>
-  </si>
-  <si>
-    <t>TrivialAugment+C2C1</t>
+    <t>Standard</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.03)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(100000) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(200000) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(40)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(80)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.01)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0lin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0lin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.03)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0lin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.06)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">C1C1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1C2 </t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <r>
+      <t>AM+L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.01)</t>
+    </r>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <r>
+      <t>TA+L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(0.01) </t>
+    </r>
+  </si>
+  <si>
+    <t>TA+C1C1</t>
+  </si>
+  <si>
+    <t>TA+C1C2</t>
+  </si>
+  <si>
+    <t>TA+C2C1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +848,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -749,10 +1215,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1076,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA71" sqref="AA71"/>
+    <sheetView tabSelected="1" topLeftCell="T32" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,87 +1560,87 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E1" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="T1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="U1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>0.126</v>
@@ -1256,7 +1723,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>1.4530000000000001</v>
@@ -1339,7 +1806,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>1.349</v>
@@ -1422,7 +1889,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>1.1930000000000001</v>
@@ -1505,7 +1972,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>0.46400000000000002</v>
@@ -1588,7 +2055,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>1.3380000000000001</v>
@@ -1671,7 +2138,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>1.843</v>
@@ -1754,7 +2221,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>1.7130000000000001</v>
@@ -1837,7 +2304,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>2.0840000000000001</v>
@@ -1920,7 +2387,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>0.53400000000000003</v>
@@ -2003,7 +2470,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>0.67</v>
@@ -2086,7 +2553,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>0.19600000000000001</v>
@@ -2169,7 +2636,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>1.371</v>
@@ -2252,7 +2719,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
         <v>0.85099999999999998</v>
@@ -2335,7 +2802,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
         <v>0.874</v>
@@ -2418,7 +2885,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
         <v>0.84299999999999997</v>
@@ -2501,7 +2968,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>0.29299999999999998</v>
@@ -2584,7 +3051,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
         <v>0.16900000000000001</v>
@@ -2667,7 +3134,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <v>1.159</v>
@@ -2750,7 +3217,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <v>1.52</v>
@@ -2833,7 +3300,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
         <v>0.2</v>
@@ -2916,7 +3383,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
         <v>0.20699999999999999</v>
@@ -2999,7 +3466,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
         <v>0.26800000000000002</v>
@@ -3082,7 +3549,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
         <v>0.26100000000000001</v>
@@ -3165,7 +3632,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
         <v>0.23200000000000001</v>
@@ -3248,7 +3715,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
         <v>0.26300000000000001</v>
@@ -3331,7 +3798,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1">
         <v>0.246</v>
@@ -3414,7 +3881,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>0.52200000000000002</v>
@@ -3497,7 +3964,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1">
         <v>0.80400000000000005</v>
@@ -3580,7 +4047,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
         <v>1.867</v>
@@ -3663,7 +4130,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1">
         <v>0.151</v>
@@ -3746,7 +4213,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1">
         <v>0.25800000000000001</v>
@@ -3829,7 +4296,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1">
         <v>0.38</v>
@@ -3912,7 +4379,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1">
         <v>0.97499999999999998</v>
@@ -3995,7 +4462,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1">
         <v>1.843</v>
@@ -4078,7 +4545,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
         <v>0.34100000000000003</v>
@@ -4161,7 +4628,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
         <v>0.98099999999999998</v>
@@ -4244,7 +4711,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1">
         <v>1.7490000000000001</v>
@@ -4327,7 +4794,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1">
         <v>0.35099999999999998</v>
@@ -4410,7 +4877,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
         <v>0.96599999999999997</v>
@@ -4493,7 +4960,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1">
         <v>2.0920000000000001</v>
@@ -4576,7 +5043,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1">
         <v>0.45600000000000002</v>
@@ -4659,7 +5126,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
         <v>1.4139999999999999</v>
@@ -4742,7 +5209,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1">
         <v>1.3220000000000001</v>
@@ -4825,7 +5292,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1">
         <v>0.32600000000000001</v>
@@ -4908,7 +5375,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1">
         <v>1.409</v>
@@ -4991,7 +5458,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1">
         <v>1.163</v>
@@ -5074,7 +5541,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1">
         <v>0.372</v>
@@ -5157,7 +5624,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1">
         <v>1.04</v>
@@ -5240,7 +5707,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1">
         <v>1.7569999999999999</v>
@@ -5323,7 +5790,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
         <v>0.33800000000000002</v>
@@ -5406,7 +5873,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1">
         <v>0.86</v>
@@ -5489,7 +5956,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1">
         <v>1.8160000000000001</v>
@@ -5572,7 +6039,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
         <v>2.1989999999999998</v>
@@ -5655,7 +6122,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
         <v>3.4740000000000002</v>
@@ -5738,7 +6205,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
         <v>0.54800000000000004</v>
@@ -5821,7 +6288,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" s="1">
         <v>0.99199999999999999</v>
@@ -5904,7 +6371,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1">
         <v>1.5009999999999999</v>
@@ -5987,7 +6454,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1">
         <v>0.56499999999999995</v>
@@ -6070,7 +6537,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="1">
         <v>1.0960000000000001</v>
@@ -6153,7 +6620,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1">
         <v>2.3420000000000001</v>
@@ -6235,49 +6702,88 @@
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="T63" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="U63" t="s">
-        <v>69</v>
-      </c>
-      <c r="V63" t="s">
-        <v>70</v>
-      </c>
-      <c r="W63" t="s">
-        <v>71</v>
-      </c>
-      <c r="X63" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="X63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA63" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1">
         <f>B2*1.96/SQRT(5)</f>
@@ -6386,7 +6892,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" ref="B65:Q65" si="2">SQRT(SUMX2PY2(B3:B21,B3:B21)/2/19)*1.96/SQRT(5)</f>
@@ -6495,7 +7001,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2">
         <f>SQRT(SUMX2PY2(B22:B27,B22:B27)/2/6)*1.96/SQRT(5)</f>
@@ -6604,111 +7110,111 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1">
-        <f>SQRT(SUMX2PY2(B28:B62,B28:B62)/2/35)*1.96/SQRT(5)</f>
-        <v>1.1658908672633126</v>
+        <f>SQRT((SUMX2PY2(B28:B31,B28:B31)+SUMX2PY2(B34:B62,B34:B62))/2/33)*1.96/SQRT(5)</f>
+        <v>1.1998344846216384</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67:Q67" si="8">SQRT(SUMX2PY2(C28:C62,C28:C62)/2/35)*1.96/SQRT(5)</f>
-        <v>1.6256425540296366</v>
+        <f>SQRT((SUMX2PY2(C28:C31,C28:C31)+SUMX2PY2(C34:C62,C34:C62))/2/33)*1.96/SQRT(5)</f>
+        <v>1.6727034999135473</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="8"/>
-        <v>0.97578039899969271</v>
+        <f t="shared" ref="D67:AA67" si="8">SQRT((SUMX2PY2(D28:D31,D28:D31)+SUMX2PY2(D34:D62,D34:D62))/2/33)*1.96/SQRT(5)</f>
+        <v>1.0021620340867279</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="8"/>
-        <v>1.3904613696697943</v>
+        <v>1.4313356493399845</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="8"/>
-        <v>0.457026731892129</v>
+        <v>0.46245461408628735</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="8"/>
-        <v>1.76364550304646</v>
+        <v>1.8159785191093716</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" si="8"/>
-        <v>0.89840142539512924</v>
+        <v>0.92411383291466997</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" si="8"/>
-        <v>1.3242571212570466</v>
+        <v>1.3619651814176235</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" si="8"/>
-        <v>0.88974122976065351</v>
+        <v>0.9148061299737642</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="8"/>
-        <v>1.3995955913505873</v>
+        <v>1.4406249613999071</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="8"/>
-        <v>1.0354616638079845</v>
+        <v>1.0643928206287658</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" si="8"/>
-        <v>2.2582910375697813</v>
+        <v>2.3253306363252357</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" si="8"/>
-        <v>1.9790714890533887</v>
+        <v>2.0378567700393351</v>
       </c>
       <c r="O67" s="1">
         <f t="shared" si="8"/>
-        <v>1.102023615834071</v>
+        <v>1.1345336951989649</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" si="8"/>
-        <v>0.66857593461924736</v>
+        <v>0.68722533958291188</v>
       </c>
       <c r="Q67" s="1">
         <f t="shared" si="8"/>
-        <v>0.47749326291372957</v>
+        <v>0.49072456925479385</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" ref="R67:T67" si="9">SQRT(SUMX2PY2(R28:R62,R28:R62)/2/35)*1.96/SQRT(5)</f>
-        <v>0.91596021464690269</v>
+        <f t="shared" si="8"/>
+        <v>0.94242878047322098</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="9"/>
-        <v>0.38670508361799427</v>
+        <f t="shared" si="8"/>
+        <v>0.39635142950455349</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2371048444751964</v>
+        <f t="shared" si="8"/>
+        <v>1.2738150338455378</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" ref="U67:AA67" si="10">SQRT(SUMX2PY2(U28:U62,U28:U62)/2/35)*1.96/SQRT(5)</f>
-        <v>0.90421787590381075</v>
+        <f t="shared" si="8"/>
+        <v>0.9303846254598801</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="10"/>
-        <v>1.2348453591668875</v>
+        <f t="shared" si="8"/>
+        <v>1.2704863893419045</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" si="10"/>
-        <v>0.55653487176276739</v>
+        <f t="shared" si="8"/>
+        <v>0.57283192173621034</v>
       </c>
       <c r="X67" s="1">
-        <f t="shared" si="10"/>
-        <v>0.83867162271773577</v>
+        <f t="shared" si="8"/>
+        <v>0.86316059544963575</v>
       </c>
       <c r="Y67" s="1">
-        <f t="shared" si="10"/>
-        <v>0.71242574057932517</v>
+        <f t="shared" si="8"/>
+        <v>0.73252989219387887</v>
       </c>
       <c r="Z67" s="1">
-        <f t="shared" si="10"/>
-        <v>0.52331156847140303</v>
+        <f t="shared" si="8"/>
+        <v>0.53784645840555079</v>
       </c>
       <c r="AA67" s="1">
-        <f t="shared" si="10"/>
-        <v>0.48042582118782906</v>
+        <f t="shared" si="8"/>
+        <v>0.49277104074690498</v>
       </c>
     </row>
   </sheetData>

--- a/results/all_results_test_std.xlsx
+++ b/results/all_results_test_std.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="cifar10_metrics_test_std" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>uniform-linf,0.02,False</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>TA+C2C1</t>
+  </si>
+  <si>
+    <t>C2C1</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T32" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="AC64" sqref="AC64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1561,7 @@
     <col min="18" max="18" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>65</v>
       </c>
@@ -1613,32 +1616,35 @@
       <c r="S1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" t="s">
         <v>83</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1696,32 +1702,35 @@
       <c r="S2" s="1">
         <v>0.107</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
+        <v>0.253</v>
+      </c>
+      <c r="U2" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.17599999999999999</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.16600000000000001</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.13300000000000001</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>0.112</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>0.13500000000000001</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1779,32 +1788,35 @@
       <c r="S3" s="1">
         <v>0.63500000000000001</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="U3" s="1">
         <v>2.371</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1.5620000000000001</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2.4350000000000001</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.99</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1.569</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1.431</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1.0149999999999999</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1862,32 +1874,35 @@
       <c r="S4" s="1">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4">
+        <v>1.369</v>
+      </c>
+      <c r="U4" s="1">
         <v>1.889</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1.1160000000000001</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1.653</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.74</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1.004</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.96499999999999997</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>0.72</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1945,32 +1960,35 @@
       <c r="S5" s="1">
         <v>0.33400000000000002</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="U5" s="1">
         <v>1.6140000000000001</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.877</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1.33</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.58599999999999997</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.92</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.88600000000000001</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.5</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2028,32 +2046,35 @@
       <c r="S6" s="1">
         <v>0.161</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6">
+        <v>0.255</v>
+      </c>
+      <c r="U6" s="1">
         <v>1.2609999999999999</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1.2629999999999999</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.14099999999999999</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.72799999999999998</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.122</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2111,32 +2132,35 @@
       <c r="S7" s="1">
         <v>0.79400000000000004</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="U7" s="1">
         <v>0.79500000000000004</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.53100000000000003</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.217</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.107</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>0.47299999999999998</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>0.4</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.47599999999999998</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2194,32 +2218,35 @@
       <c r="S8" s="1">
         <v>1.103</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8">
+        <v>1.224</v>
+      </c>
+      <c r="U8" s="1">
         <v>1.1259999999999999</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.97099999999999997</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.32300000000000001</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.29899999999999999</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>0.74</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>0.55400000000000005</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.72499999999999998</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2277,32 +2304,35 @@
       <c r="S9" s="1">
         <v>1.8169999999999999</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="U9" s="1">
         <v>0.94099999999999995</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.88700000000000001</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.32</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.62</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.92800000000000005</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>0.66800000000000004</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>0.52300000000000002</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2360,32 +2390,35 @@
       <c r="S10" s="1">
         <v>1.0580000000000001</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="U10" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.77600000000000002</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.4</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.29399999999999998</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>0.48299999999999998</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>0.45500000000000002</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.60599999999999998</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2443,32 +2476,35 @@
       <c r="S11" s="1">
         <v>0.248</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="U11" s="1">
         <v>0.60799999999999998</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.73799999999999999</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.41599999999999998</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>0.23100000000000001</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>0.17499999999999999</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>0.24299999999999999</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2526,32 +2562,35 @@
       <c r="S12" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="U12" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.54800000000000004</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0.215</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0.317</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>0.40600000000000003</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>0.34899999999999998</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>0.217</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2609,32 +2648,35 @@
       <c r="S13" s="1">
         <v>0.13</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13">
+        <v>0.216</v>
+      </c>
+      <c r="U13" s="1">
         <v>0.18</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.20300000000000001</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>0.246</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>0.125</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>7.8E-2</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>0.115</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>0.122</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2692,32 +2734,35 @@
       <c r="S14" s="1">
         <v>0.27900000000000003</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14">
+        <v>1.391</v>
+      </c>
+      <c r="U14" s="1">
         <v>0.66400000000000003</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2.218</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0.30499999999999999</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0.14199999999999999</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>0.41499999999999998</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>0.50700000000000001</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>0.246</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2775,32 +2820,35 @@
       <c r="S15" s="1">
         <v>0.78400000000000003</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15">
+        <v>0.92</v>
+      </c>
+      <c r="U15" s="1">
         <v>0.68200000000000005</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.628</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.371</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.48699999999999999</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0.58199999999999996</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.501</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.39800000000000002</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2858,32 +2906,35 @@
       <c r="S16" s="1">
         <v>0.48099999999999998</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="U16" s="1">
         <v>1.2729999999999999</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1.26</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.878</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.93</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1.623</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.0780000000000001</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1.44</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.72</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2941,32 +2992,35 @@
       <c r="S17" s="1">
         <v>0.25</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="U17" s="1">
         <v>0.33400000000000002</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.46400000000000002</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.39500000000000002</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.81899999999999995</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.56399999999999995</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.435</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.32100000000000001</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3024,32 +3078,35 @@
       <c r="S18" s="1">
         <v>0.52500000000000002</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="U18" s="1">
         <v>0.224</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.49</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.39700000000000002</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.254</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.246</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.183</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.22700000000000001</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3107,32 +3164,35 @@
       <c r="S19" s="1">
         <v>0.189</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19">
+        <v>0.246</v>
+      </c>
+      <c r="U19" s="1">
         <v>0.111</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.121</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.22700000000000001</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.14099999999999999</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3190,32 +3250,35 @@
       <c r="S20" s="1">
         <v>0.499</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="U20" s="1">
         <v>0.79</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.68400000000000005</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.76200000000000001</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.19600000000000001</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1.1220000000000001</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.63100000000000001</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.308</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3273,32 +3336,35 @@
       <c r="S21" s="1">
         <v>1.4770000000000001</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21">
+        <v>1.623</v>
+      </c>
+      <c r="U21" s="1">
         <v>2.3769999999999998</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2.09</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.90800000000000003</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.92200000000000004</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.70799999999999996</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.41899999999999998</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.49099999999999999</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3356,32 +3422,35 @@
       <c r="S22" s="1">
         <v>0.128</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="U22" s="1">
         <v>0.16900000000000001</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.13300000000000001</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.11</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.11799999999999999</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.115</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.12</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.14799999999999999</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3439,32 +3508,35 @@
       <c r="S23" s="1">
         <v>0.13800000000000001</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="U23" s="1">
         <v>0.19600000000000001</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.13800000000000001</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.152</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.14799999999999999</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.13400000000000001</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.115</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3522,32 +3594,35 @@
       <c r="S24" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="U24" s="1">
         <v>0.17799999999999999</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.12</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.161</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.20699999999999999</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.189</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.14299999999999999</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.161</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.191</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3605,32 +3680,35 @@
       <c r="S25" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="U25" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.129</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.161</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.14299999999999999</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.14099999999999999</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.11</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3688,32 +3766,35 @@
       <c r="S26" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26">
+        <v>0.23</v>
+      </c>
+      <c r="U26" s="1">
         <v>0.161</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.10199999999999999</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.111</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.1</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.159</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.13500000000000001</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.20200000000000001</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.123</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3771,32 +3852,35 @@
       <c r="S27" s="1">
         <v>0.105</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T27">
+        <v>0.222</v>
+      </c>
+      <c r="U27" s="1">
         <v>0.19900000000000001</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.155</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.185</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.156</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.107</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3854,32 +3938,35 @@
       <c r="S28" s="1">
         <v>0.125</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T28">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="U28" s="1">
         <v>0.2</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.159</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.14699999999999999</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.20799999999999999</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.112</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.121</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -3937,32 +4024,35 @@
       <c r="S29" s="1">
         <v>0.124</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29">
+        <v>0.253</v>
+      </c>
+      <c r="U29" s="1">
         <v>0.378</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.127</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.18099999999999999</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.13500000000000001</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.42199999999999999</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.109</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -4020,32 +4110,35 @@
       <c r="S30" s="1">
         <v>0.152</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="U30" s="1">
         <v>0.69199999999999995</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.32</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.36599999999999999</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.26500000000000001</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.44400000000000001</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.189</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4103,32 +4196,35 @@
       <c r="S31" s="1">
         <v>0.46700000000000003</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T31">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="U31" s="1">
         <v>2.33</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1.274</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.6859999999999999</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.875</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1.36</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.89500000000000002</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.61299999999999999</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.629</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -4186,32 +4282,35 @@
       <c r="S32" s="1">
         <v>0.17599999999999999</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="U32" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.14799999999999999</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.11700000000000001</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.108</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0.157</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.20100000000000001</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -4269,32 +4368,35 @@
       <c r="S33" s="1">
         <v>0.184</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T33">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="U33" s="1">
         <v>0.127</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.21099999999999999</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.34699999999999998</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.17100000000000001</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.221</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.1</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -4352,32 +4454,35 @@
       <c r="S34" s="1">
         <v>0.19</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T34">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="U34" s="1">
         <v>0.28100000000000003</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.16400000000000001</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.16800000000000001</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.25800000000000001</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.36299999999999999</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.19700000000000001</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -4435,32 +4540,35 @@
       <c r="S35" s="1">
         <v>0.187</v>
       </c>
-      <c r="T35" s="1">
+      <c r="T35">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="U35" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.61399999999999999</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.66900000000000004</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.36899999999999999</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.58799999999999997</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.25</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.113</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4518,32 +4626,35 @@
       <c r="S36" s="1">
         <v>0.78900000000000003</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T36">
+        <v>1.982</v>
+      </c>
+      <c r="U36" s="1">
         <v>2.9889999999999999</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>2.1960000000000002</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>2.903</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>1.2569999999999999</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>2.036</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>1.82</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>1.286</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>1.323</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4601,32 +4712,35 @@
       <c r="S37" s="1">
         <v>0.19</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T37">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="U37" s="1">
         <v>0.32100000000000001</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.184</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.159</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.23300000000000001</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.34799999999999998</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.123</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.17</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4684,32 +4798,35 @@
       <c r="S38" s="1">
         <v>0.222</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="U38" s="1">
         <v>0.80800000000000005</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.44600000000000001</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.60699999999999998</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.45600000000000002</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.57099999999999995</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.26300000000000001</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.11799999999999999</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -4767,32 +4884,35 @@
       <c r="S39" s="1">
         <v>0.78500000000000003</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T39">
+        <v>1.992</v>
+      </c>
+      <c r="U39" s="1">
         <v>2.93</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>1.8120000000000001</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>3.1</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>1.2729999999999999</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>1.8720000000000001</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>1.87</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>1.103</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>1.0640000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -4850,32 +4970,35 @@
       <c r="S40" s="1">
         <v>0.14699999999999999</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T40">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="U40" s="1">
         <v>0.33500000000000002</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>0.193</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.16500000000000001</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.22700000000000001</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>0.34399999999999997</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>0.157</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4933,32 +5056,35 @@
       <c r="S41" s="1">
         <v>0.23400000000000001</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="U41" s="1">
         <v>0.73699999999999999</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.52900000000000003</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.45500000000000002</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.35199999999999998</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>0.53200000000000003</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>0.112</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>0.191</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -5016,32 +5142,35 @@
       <c r="S42" s="1">
         <v>0.57699999999999996</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T42">
+        <v>1.323</v>
+      </c>
+      <c r="U42" s="1">
         <v>2.48</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>1.7270000000000001</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>2.0739999999999998</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.91</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>1.284</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>0.92700000000000005</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>0.84799999999999998</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -5099,32 +5228,35 @@
       <c r="S43" s="1">
         <v>0.152</v>
       </c>
-      <c r="T43" s="1">
+      <c r="T43">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="U43" s="1">
         <v>0.34599999999999997</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.14399999999999999</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.30499999999999999</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.23899999999999999</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>0.39300000000000002</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>0.20599999999999999</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>0.17199999999999999</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -5182,32 +5314,35 @@
       <c r="S44" s="1">
         <v>0.26600000000000001</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T44">
+        <v>0.436</v>
+      </c>
+      <c r="U44" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.78300000000000003</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.97399999999999998</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.39500000000000002</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>0.77900000000000003</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>0.17699999999999999</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>0.13800000000000001</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -5265,32 +5400,35 @@
       <c r="S45" s="1">
         <v>1.0580000000000001</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T45">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="U45" s="1">
         <v>2.7759999999999998</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>2.0179999999999998</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>3.472</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>1.028</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>2.4279999999999999</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>2.41</v>
-      </c>
-      <c r="Z45">
-        <v>1.579</v>
       </c>
       <c r="AA45">
         <v>1.579</v>
       </c>
+      <c r="AB45">
+        <v>1.579</v>
+      </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -5348,32 +5486,35 @@
       <c r="S46" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T46">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="U46" s="1">
         <v>0.436</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.16600000000000001</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.223</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.21</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>0.315</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>0.159</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>0.12</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -5431,32 +5572,35 @@
       <c r="S47" s="1">
         <v>0.26200000000000001</v>
       </c>
-      <c r="T47" s="1">
+      <c r="T47">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="U47" s="1">
         <v>1.39</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.73199999999999998</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.42899999999999999</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>0.76600000000000001</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>0.216</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>0.249</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -5514,32 +5658,35 @@
       <c r="S48" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="T48" s="1">
+      <c r="T48">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="U48" s="1">
         <v>2.7949999999999999</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>1.9890000000000001</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>3.3889999999999998</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>1.2809999999999999</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>2.3719999999999999</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>2.0249999999999999</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>1.679</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>1.5449999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -5597,32 +5744,35 @@
       <c r="S49" s="1">
         <v>0.16400000000000001</v>
       </c>
-      <c r="T49" s="1">
+      <c r="T49">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="U49" s="1">
         <v>0.38900000000000001</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.16500000000000001</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.189</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>0.35399999999999998</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>0.112</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>0.114</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -5680,32 +5830,35 @@
       <c r="S50" s="1">
         <v>0.26100000000000001</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T50">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="U50" s="1">
         <v>0.73699999999999999</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>0.315</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.56599999999999995</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.28899999999999998</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>0.56899999999999995</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>0.14299999999999999</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -5763,32 +5916,35 @@
       <c r="S51" s="1">
         <v>0.61499999999999999</v>
       </c>
-      <c r="T51" s="1">
+      <c r="T51">
+        <v>1.446</v>
+      </c>
+      <c r="U51" s="1">
         <v>2.79</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>1.897</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>2.7429999999999999</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>1.2529999999999999</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>1.46</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>1.341</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>1.0509999999999999</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -5846,32 +6002,35 @@
       <c r="S52" s="1">
         <v>0.13900000000000001</v>
       </c>
-      <c r="T52" s="1">
+      <c r="T52">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="U52" s="1">
         <v>0.309</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>0.13400000000000001</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.16900000000000001</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.222</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>0.27800000000000002</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>0.15</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>0.107</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>0.126</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -5929,32 +6088,35 @@
       <c r="S53" s="1">
         <v>0.16700000000000001</v>
       </c>
-      <c r="T53" s="1">
+      <c r="T53">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="U53" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>0.46200000000000002</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.58499999999999996</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.309</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>0.49199999999999999</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>0.155</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -6012,32 +6174,35 @@
       <c r="S54" s="1">
         <v>0.55200000000000005</v>
       </c>
-      <c r="T54" s="1">
+      <c r="T54">
+        <v>1.556</v>
+      </c>
+      <c r="U54" s="1">
         <v>2.625</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>2.0579999999999998</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>2.6789999999999998</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>1.2889999999999999</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>1.764</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>1.4830000000000001</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>1.1359999999999999</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -6095,32 +6260,35 @@
       <c r="S55" s="1">
         <v>0.52300000000000002</v>
       </c>
-      <c r="T55" s="1">
+      <c r="T55">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="U55" s="1">
         <v>0.24099999999999999</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>0.38700000000000001</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.38900000000000001</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.22700000000000001</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>0.187</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>0.10299999999999999</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>0.251</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -6178,32 +6346,35 @@
       <c r="S56" s="1">
         <v>1.107</v>
       </c>
-      <c r="T56" s="1">
+      <c r="T56">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="U56" s="1">
         <v>0.29899999999999999</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>1.0149999999999999</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>1.089</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.315</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>0.11600000000000001</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>0.23400000000000001</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>0.37</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -6261,32 +6432,35 @@
       <c r="S57" s="1">
         <v>0.109</v>
       </c>
-      <c r="T57" s="1">
+      <c r="T57">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="U57" s="1">
         <v>0.13</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>0.43</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0.13500000000000001</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0.189</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>0.157</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>0.19700000000000001</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>0.114</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -6344,32 +6518,35 @@
       <c r="S58" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="T58" s="1">
+      <c r="T58">
+        <v>0.224</v>
+      </c>
+      <c r="U58" s="1">
         <v>0.372</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>0.65400000000000003</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.192</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0.55400000000000005</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>0.159</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>0.11</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -6427,32 +6604,35 @@
       <c r="S59" s="1">
         <v>0.20300000000000001</v>
       </c>
-      <c r="T59" s="1">
+      <c r="T59">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="U59" s="1">
         <v>1.232</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>1.22</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.157</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.66200000000000003</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>0.17599999999999999</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>0.111</v>
       </c>
-      <c r="AA59">
+      <c r="AB59">
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -6510,32 +6690,35 @@
       <c r="S60" s="1">
         <v>0.19</v>
       </c>
-      <c r="T60" s="1">
+      <c r="T60">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="U60" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>0.223</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.17499999999999999</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.29499999999999998</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>0.129</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>0.11700000000000001</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>0.128</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>0.157</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -6593,32 +6776,35 @@
       <c r="S61" s="1">
         <v>0.17899999999999999</v>
       </c>
-      <c r="T61" s="1">
+      <c r="T61">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="U61" s="1">
         <v>0.37</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>0.66100000000000003</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0.24199999999999999</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.438</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>0.115</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>0.13900000000000001</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>0.124</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -6676,32 +6862,35 @@
       <c r="S62" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="T62" s="1">
+      <c r="T62">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="U62" s="1">
         <v>1.095</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>1.4910000000000001</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>0.28999999999999998</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.83899999999999997</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>0.109</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>0.186</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>0.183</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>0.123</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>65</v>
       </c>
@@ -6756,32 +6945,35 @@
       <c r="S63" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="T63" t="s">
+      <c r="T63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U63" t="s">
         <v>83</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>84</v>
       </c>
-      <c r="V63" s="3" t="s">
+      <c r="W63" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="W63" s="3" t="s">
+      <c r="X63" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="X63" s="3" t="s">
+      <c r="Y63" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Y63" s="3" t="s">
+      <c r="Z63" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Z63" s="3" t="s">
+      <c r="AA63" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AA63" s="3" t="s">
+      <c r="AB63" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -6790,7 +6982,7 @@
         <v>0.1104438695446696</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" ref="C64:T64" si="0">C2*1.96/SQRT(5)</f>
+        <f t="shared" ref="C64:U64" si="0">C2*1.96/SQRT(5)</f>
         <v>0.17969042267188309</v>
       </c>
       <c r="D64" s="1">
@@ -6859,38 +7051,42 @@
       </c>
       <c r="T64" s="1">
         <f t="shared" si="0"/>
+        <v>0.22176427773651913</v>
+      </c>
+      <c r="U64" s="1">
+        <f t="shared" si="0"/>
         <v>0.11570310142774912</v>
       </c>
-      <c r="U64" s="1">
-        <f t="shared" ref="U64:AA64" si="1">U2*1.96/SQRT(5)</f>
+      <c r="V64" s="1">
+        <f t="shared" ref="V64:AB64" si="1">V2*1.96/SQRT(5)</f>
         <v>0.15427080190366549</v>
       </c>
-      <c r="V64" s="1">
+      <c r="W64" s="1">
         <f t="shared" si="1"/>
         <v>0.14550541543186632</v>
       </c>
-      <c r="W64" s="1">
+      <c r="X64" s="1">
         <f t="shared" si="1"/>
         <v>0.11657964007492903</v>
       </c>
-      <c r="X64" s="1">
+      <c r="Y64" s="1">
         <f t="shared" si="1"/>
         <v>9.8172328484150764E-2</v>
       </c>
-      <c r="Y64" s="1">
+      <c r="Z64" s="1">
         <f t="shared" si="1"/>
         <v>0.11833271736928887</v>
       </c>
-      <c r="Z64" s="1">
+      <c r="AA64" s="1">
         <f t="shared" si="1"/>
         <v>0.12972771978262779</v>
       </c>
-      <c r="AA64" s="1">
+      <c r="AB64" s="1">
         <f t="shared" si="1"/>
         <v>0.11482656278056919</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -6959,7 +7155,7 @@
         <v>1.0505117494811254</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" ref="R65:T65" si="3">SQRT(SUMX2PY2(R3:R21,R3:R21)/2/19)*1.96/SQRT(5)</f>
+        <f t="shared" ref="R65:U65" si="3">SQRT(SUMX2PY2(R3:R21,R3:R21)/2/19)*1.96/SQRT(5)</f>
         <v>0.97310647050945465</v>
       </c>
       <c r="S65" s="1">
@@ -6968,38 +7164,42 @@
       </c>
       <c r="T65" s="1">
         <f t="shared" si="3"/>
+        <v>0.94004333343342816</v>
+      </c>
+      <c r="U65" s="1">
+        <f t="shared" si="3"/>
         <v>1.029995355787179</v>
       </c>
-      <c r="U65" s="1">
-        <f t="shared" ref="U65:AA65" si="4">SQRT(SUMX2PY2(U3:U21,U3:U21)/2/19)*1.96/SQRT(5)</f>
+      <c r="V65" s="1">
+        <f t="shared" ref="V65:AB65" si="4">SQRT(SUMX2PY2(V3:V21,V3:V21)/2/19)*1.96/SQRT(5)</f>
         <v>0.93798048865803085</v>
       </c>
-      <c r="V65" s="1">
+      <c r="W65" s="1">
         <f t="shared" si="4"/>
         <v>0.75015179657958497</v>
       </c>
-      <c r="W65" s="1">
+      <c r="X65" s="1">
         <f t="shared" si="4"/>
         <v>0.48820154586960657</v>
       </c>
-      <c r="X65" s="1">
+      <c r="Y65" s="1">
         <f t="shared" si="4"/>
         <v>0.6834366888538973</v>
       </c>
-      <c r="Y65" s="1">
+      <c r="Z65" s="1">
         <f t="shared" si="4"/>
         <v>0.54918600635370951</v>
       </c>
-      <c r="Z65" s="1">
+      <c r="AA65" s="1">
         <f t="shared" si="4"/>
         <v>0.50566152720236845</v>
       </c>
-      <c r="AA65" s="1">
+      <c r="AB65" s="1">
         <f t="shared" si="4"/>
         <v>0.41872934386131372</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -7068,7 +7268,7 @@
         <v>0.16482850319852652</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" ref="R66:T66" si="6">SQRT(SUMX2PY2(R22:R27,R22:R27)/2/6)*1.96/SQRT(5)</f>
+        <f t="shared" ref="R66:U66" si="6">SQRT(SUMX2PY2(R22:R27,R22:R27)/2/6)*1.96/SQRT(5)</f>
         <v>0.14414597434545301</v>
       </c>
       <c r="S66" s="2">
@@ -7077,38 +7277,42 @@
       </c>
       <c r="T66" s="2">
         <f t="shared" si="6"/>
+        <v>0.2283339713081112</v>
+      </c>
+      <c r="U66" s="2">
+        <f t="shared" si="6"/>
         <v>0.15082196816114021</v>
       </c>
-      <c r="U66" s="2">
-        <f t="shared" ref="U66:AA66" si="7">SQRT(SUMX2PY2(U22:U27,U22:U27)/2/6)*1.96/SQRT(5)</f>
+      <c r="V66" s="2">
+        <f t="shared" ref="V66:AB66" si="7">SQRT(SUMX2PY2(V22:V27,V22:V27)/2/6)*1.96/SQRT(5)</f>
         <v>8.5786672158325375E-2</v>
       </c>
-      <c r="V66" s="2">
+      <c r="W66" s="2">
         <f t="shared" si="7"/>
         <v>0.11871194312283831</v>
       </c>
-      <c r="W66" s="2">
+      <c r="X66" s="2">
         <f t="shared" si="7"/>
         <v>0.12793811483161172</v>
       </c>
-      <c r="X66" s="2">
+      <c r="Y66" s="2">
         <f t="shared" si="7"/>
         <v>0.13691410212246216</v>
       </c>
-      <c r="Y66" s="2">
+      <c r="Z66" s="2">
         <f t="shared" si="7"/>
         <v>0.11480537223202289</v>
       </c>
-      <c r="Z66" s="2">
+      <c r="AA66" s="2">
         <f t="shared" si="7"/>
         <v>0.13534458757802861</v>
       </c>
-      <c r="AA66" s="2">
+      <c r="AB66" s="2">
         <f t="shared" si="7"/>
         <v>0.11429562044686284</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -7121,7 +7325,7 @@
         <v>1.6727034999135473</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:AA67" si="8">SQRT((SUMX2PY2(D28:D31,D28:D31)+SUMX2PY2(D34:D62,D34:D62))/2/33)*1.96/SQRT(5)</f>
+        <f t="shared" ref="D67:AB67" si="8">SQRT((SUMX2PY2(D28:D31,D28:D31)+SUMX2PY2(D34:D62,D34:D62))/2/33)*1.96/SQRT(5)</f>
         <v>1.0021620340867279</v>
       </c>
       <c r="E67" s="1">
@@ -7149,7 +7353,7 @@
         <v>0.9148061299737642</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="8"/>
+        <f>SQRT((SUMX2PY2(K28:K31,K28:K31)+SUMX2PY2(K34:K62,K34:K62))/2/33)*1.96/SQRT(5)</f>
         <v>1.4406249613999071</v>
       </c>
       <c r="L67" s="1">
@@ -7186,33 +7390,37 @@
       </c>
       <c r="T67" s="1">
         <f t="shared" si="8"/>
-        <v>1.2738150338455378</v>
+        <v>0.87526623793442337</v>
       </c>
       <c r="U67" s="1">
         <f t="shared" si="8"/>
-        <v>0.9303846254598801</v>
+        <v>1.2738150338455378</v>
       </c>
       <c r="V67" s="1">
         <f t="shared" si="8"/>
-        <v>1.2704863893419045</v>
+        <v>0.9303846254598801</v>
       </c>
       <c r="W67" s="1">
         <f t="shared" si="8"/>
-        <v>0.57283192173621034</v>
+        <v>1.2704863893419045</v>
       </c>
       <c r="X67" s="1">
         <f t="shared" si="8"/>
-        <v>0.86316059544963575</v>
+        <v>0.57283192173621034</v>
       </c>
       <c r="Y67" s="1">
         <f t="shared" si="8"/>
-        <v>0.73252989219387887</v>
+        <v>0.86316059544963575</v>
       </c>
       <c r="Z67" s="1">
         <f t="shared" si="8"/>
+        <v>0.73252989219387887</v>
+      </c>
+      <c r="AA67" s="1">
+        <f t="shared" si="8"/>
         <v>0.53784645840555079</v>
       </c>
-      <c r="AA67" s="1">
+      <c r="AB67" s="1">
         <f t="shared" si="8"/>
         <v>0.49277104074690498</v>
       </c>
